--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar2\OneDrive - uniminuto.edu\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232F4A63-288E-44E8-B430-9BC74527BEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41E0072-0810-4565-AA3A-D2AFD7E8663D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,382 +437,82 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
         <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar2\OneDrive - uniminuto.edu\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41E0072-0810-4565-AA3A-D2AFD7E8663D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A0E00F-DC92-4483-954A-E6B40BE0FEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,80 +439,748 @@
       <c r="A2">
         <v>13</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>26</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>27</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>27</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>27</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>27</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>29</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>29</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>29</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>29</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar2\OneDrive - uniminuto.edu\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A0E00F-DC92-4483-954A-E6B40BE0FEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8520161F-23A8-40F1-8A56-C723FEB3FF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar2\OneDrive - uniminuto.edu\Documentos\GitHub\detect_mines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8520161F-23A8-40F1-8A56-C723FEB3FF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845739C6-F45A-4B44-B440-FAC5ABF636FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,32 +437,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -470,32 +470,32 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -503,98 +503,98 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -602,87 +602,87 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -701,54 +701,54 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -756,117 +756,117 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -888,299 +888,35 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>24</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>24</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>24</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>24</v>
-      </c>
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>25</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>25</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>25</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>25</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>26</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>26</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>26</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>26</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>27</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>27</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>27</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>27</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>28</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>28</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>28</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>28</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>29</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>29</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>29</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>29</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar2\OneDrive - uniminuto.edu\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845739C6-F45A-4B44-B440-FAC5ABF636FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208D9E6B-FA20-4D1C-A1E9-E3BF1A6373A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -416,13 +416,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="88.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -437,76 +440,76 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -514,51 +517,51 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -569,7 +572,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -580,109 +583,109 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -690,21 +693,21 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -712,210 +715,78 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>5</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>40</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>40</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
         <v>4</v>
       </c>
     </row>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar2\OneDrive - uniminuto.edu\Documentos\GitHub\detect_mines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208D9E6B-FA20-4D1C-A1E9-E3BF1A6373A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD65A2B2-EB43-485A-8287-E3E4FECD8DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,10 +440,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -451,95 +451,95 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -550,21 +550,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -572,54 +572,54 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -638,156 +638,24 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>45</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>45</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>46</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>46</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>46</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>46</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>47</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>47</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>47</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>47</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD65A2B2-EB43-485A-8287-E3E4FECD8DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C117644F-F0D5-4979-9D0F-2415A42409CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,84 +440,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -539,21 +539,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -561,51 +561,51 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -616,46 +616,46 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C117644F-F0D5-4979-9D0F-2415A42409CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF251EA-2672-4BDA-9C22-2F01C5F1F92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,54 +440,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -495,76 +495,76 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -572,43 +572,43 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -627,35 +627,79 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>63</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>63</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF251EA-2672-4BDA-9C22-2F01C5F1F92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B80A37-95BB-4799-A09A-B75AF3B03D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,29 +440,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -484,62 +484,62 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -550,156 +550,112 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
         <v>3</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>63</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>63</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>63</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>63</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B80A37-95BB-4799-A09A-B75AF3B03D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A132F20A-D041-4189-8337-7DA23A6D62DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -451,10 +451,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -462,10 +462,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -473,43 +473,43 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -517,21 +517,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -539,123 +539,35 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>67</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>67</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
         <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>67</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>67</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>68</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>68</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>68</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>68</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A132F20A-D041-4189-8337-7DA23A6D62DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4EEF73-5C97-44A1-BE2F-811FD34FF248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,43 +440,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -484,90 +484,222 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>77</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>77</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4EEF73-5C97-44A1-BE2F-811FD34FF248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA360DBF-1B1F-4038-93AF-286E224D62F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,43 +440,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -484,109 +484,109 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -594,29 +594,29 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -627,21 +627,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -649,18 +649,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -671,35 +671,123 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>84</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>84</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>84</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>85</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>85</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>85</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA360DBF-1B1F-4038-93AF-286E224D62F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90065394-4483-4039-B93E-7684A3AC56C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,54 +440,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -506,29 +506,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
         <v>4</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -539,255 +539,35 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>81</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>81</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>81</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>81</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>82</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>82</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>82</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>82</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>83</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>83</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>83</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>84</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>84</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>84</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>84</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>85</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>85</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>85</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>85</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90065394-4483-4039-B93E-7684A3AC56C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0766C426-6F7C-485D-BCF9-8277E2288B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,54 +440,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -495,79 +495,123 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>92</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>92</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>92</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0766C426-6F7C-485D-BCF9-8277E2288B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCFA59F-F3B1-45BB-9D3D-10918CB091CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,32 +440,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -473,10 +473,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -484,87 +484,87 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -572,29 +572,29 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -605,13 +605,189 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17">
         <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>97</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>97</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>98</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>98</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>98</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>99</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>99</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>99</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>99</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>100</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCFA59F-F3B1-45BB-9D3D-10918CB091CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF29E36A-8364-4F19-B5E7-DA75786B5541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,65 +440,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -506,21 +506,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -528,87 +528,87 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -616,21 +616,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -638,156 +638,24 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>98</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>98</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>98</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>98</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>99</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>99</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>99</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>99</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>100</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>100</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>100</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>100</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF29E36A-8364-4F19-B5E7-DA75786B5541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C508485A-C422-43B8-BA60-D1249D88DBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,32 +440,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -473,54 +473,54 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -528,54 +528,54 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -583,32 +583,32 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -616,18 +616,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -638,24 +638,24 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C508485A-C422-43B8-BA60-D1249D88DBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B1F87-4B37-4424-8D98-032B5CCC4428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,43 +440,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -484,21 +484,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -506,21 +506,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -528,84 +528,84 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -616,46 +616,46 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B1F87-4B37-4424-8D98-032B5CCC4428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736589CE-12A5-4A74-B303-6C3D96A98F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,131 +440,131 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -572,10 +572,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -583,29 +583,29 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -616,46 +616,46 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>1</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736589CE-12A5-4A74-B303-6C3D96A98F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA6B0AE-7997-43D9-8DCB-288F1CA2CEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,43 +440,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>3</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -484,32 +484,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>2</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -517,65 +517,65 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -583,79 +583,79 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA6B0AE-7997-43D9-8DCB-288F1CA2CEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABACA6D-E0C5-4D3F-9BA8-650DAA9CFB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,21 +440,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -462,21 +462,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -484,43 +484,43 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -539,29 +539,29 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -572,43 +572,43 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -616,43 +616,43 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>4</v>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABACA6D-E0C5-4D3F-9BA8-650DAA9CFB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0E932C-FDBA-4357-AEC0-EFE763D12523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,43 +440,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -484,32 +484,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -517,43 +517,43 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -561,29 +561,29 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -594,21 +594,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -616,32 +616,32 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -649,13 +649,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0E932C-FDBA-4357-AEC0-EFE763D12523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E11BD2F-D221-4347-8E38-49FC1CBCCD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,32 +440,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -473,62 +473,62 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -550,73 +550,73 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
         <v>5</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -638,24 +638,24 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E11BD2F-D221-4347-8E38-49FC1CBCCD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEFFEC9-78BA-4EBD-B0B8-7D894191FC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,21 +440,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -462,95 +462,95 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -561,101 +561,101 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEFFEC9-78BA-4EBD-B0B8-7D894191FC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6081C632-0207-4E04-BBF6-DE9A7A2D09C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A18:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,21 +440,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -462,29 +462,29 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -495,32 +495,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>1</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -528,134 +528,90 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>3</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>145</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>145</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>145</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>145</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferch\OneDrive\Documentos\GitHub\detect_mines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar2\OneDrive - uniminuto.edu\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6081C632-0207-4E04-BBF6-DE9A7A2D09C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56919DDA-5BCB-4F2A-877F-CC6772A258D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
+    <workbookView xWindow="5865" yWindow="630" windowWidth="5580" windowHeight="6585" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A18:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,21 +440,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -462,10 +462,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -473,145 +473,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>147</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>147</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>147</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>147</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>148</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>148</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>148</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>148</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>149</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>149</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>149</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>149</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar2\OneDrive - uniminuto.edu\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56919DDA-5BCB-4F2A-877F-CC6772A258D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8E4607-E575-4CA0-93D1-B99C90DB6D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="630" windowWidth="5580" windowHeight="6585" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -416,16 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N8" activeCellId="1" sqref="L7 N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="88.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -440,46 +437,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>5</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar2\OneDrive - uniminuto.edu\Documentos\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8E4607-E575-4CA0-93D1-B99C90DB6D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0038B2F-B943-4DA6-83D2-CBBC8C913A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
+    <workbookView xWindow="420" yWindow="1275" windowWidth="5145" windowHeight="8325" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" activeCellId="1" sqref="L7 N8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,178 +437,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
         <v>5</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar2\OneDrive - uniminuto.edu\Documentos\GitHub\detect_mines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0038B2F-B943-4DA6-83D2-CBBC8C913A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C241132F-AB91-4F2C-A57E-9866B1B197B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1275" windowWidth="5145" windowHeight="8325" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
+    <workbookView xWindow="1140" yWindow="2385" windowWidth="6345" windowHeight="11175" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -437,35 +437,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/partidas_mines.xlsx
+++ b/partidas_mines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\detect_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C241132F-AB91-4F2C-A57E-9866B1B197B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC918E0D-B688-472B-8CC4-631A26FD9C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="2385" windowWidth="6345" windowHeight="11175" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
+    <workbookView xWindow="-15300" yWindow="520" windowWidth="5940" windowHeight="7360" xr2:uid="{28234BB7-34D6-40F0-9F81-F11149BF6DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>partida</t>
   </si>
@@ -46,15 +46,24 @@
   <si>
     <t>columna</t>
   </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -416,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B531AC-16A0-4190-833B-D0DCF47D07F9}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -443,32 +452,38 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>